--- a/Data/EC/NIT-9004649017.xlsx
+++ b/Data/EC/NIT-9004649017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62DE0C6-E2AC-4B83-ADF0-1F4648887B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEA5A3F-D4F2-411D-9845-24FF777217AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{26B65E5B-DD43-4840-BC20-7C06E8259C77}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F724D57-4DAB-40C8-AE7C-62B409E1D337}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,84 @@
     <t>CC</t>
   </si>
   <si>
+    <t>79427140</t>
+  </si>
+  <si>
+    <t>RAMON JOSE ARIZA RIOS</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>73127846</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CARRILLO GRAU</t>
+  </si>
+  <si>
+    <t>1047458914</t>
+  </si>
+  <si>
+    <t>MERY CLARA MORELOS HENRIQUEZ</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>1050039005</t>
+  </si>
+  <si>
+    <t>JUAN PABLO BUELVAS LEYVA</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
     <t>1052960119</t>
   </si>
   <si>
@@ -74,22 +152,10 @@
     <t>1709</t>
   </si>
   <si>
-    <t>1050039005</t>
-  </si>
-  <si>
-    <t>JUAN PABLO BUELVAS LEYVA</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>33204680</t>
-  </si>
-  <si>
-    <t>ELVIA ELENA DOMINGUEZ POVEA</t>
-  </si>
-  <si>
-    <t>1804</t>
+    <t>1050969488</t>
+  </si>
+  <si>
+    <t>ARLEY ALEXANDER MACIAS TRESPALACIOS</t>
   </si>
   <si>
     <t>1143401543</t>
@@ -101,6 +167,18 @@
     <t>1905</t>
   </si>
   <si>
+    <t>1052961171</t>
+  </si>
+  <si>
+    <t>YESENIA ROCIO SCHMALBACH MORENO</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
     <t>20373392</t>
   </si>
   <si>
@@ -110,76 +188,16 @@
     <t>2207</t>
   </si>
   <si>
-    <t>1050969488</t>
-  </si>
-  <si>
-    <t>ARLEY ALEXANDER MACIAS TRESPALACIOS</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>79427140</t>
-  </si>
-  <si>
-    <t>RAMON JOSE ARIZA RIOS</t>
-  </si>
-  <si>
     <t>1052998110</t>
   </si>
   <si>
     <t>MARIAN ALEJANDRA BENAVIDEZ ACOSTA</t>
   </si>
   <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>73127846</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CARRILLO GRAU</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
     <t>1007939014</t>
   </si>
   <si>
     <t>SHARON JULIANA GUERRERO RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -593,7 +611,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDE8F258-A9A7-CE75-FE45-18CB8C147D61}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD814C1-A383-2C29-838D-87E36C3FCE75}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -944,8 +962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF0E821-FD00-4F1D-BE90-199BFFE6BF59}">
-  <dimension ref="B2:J45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80D9BDB-2671-4BE7-9369-8DC7D2FF298C}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -969,7 +987,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1014,7 +1032,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1046,12 +1064,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1615397</v>
+        <v>1947944</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1062,17 +1080,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C13" s="5">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F13" s="5">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1099,13 +1117,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1122,10 +1140,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>29509</v>
+        <v>88000</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>2200000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1136,19 +1154,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>88000</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>2200000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1159,19 +1177,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>88000</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>2200000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1182,19 +1200,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>6625</v>
+        <v>88000</v>
       </c>
       <c r="G19" s="18">
-        <v>828116</v>
+        <v>2200000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1205,19 +1223,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>68658</v>
+        <v>88000</v>
       </c>
       <c r="G20" s="18">
-        <v>1980500</v>
+        <v>2200000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1228,19 +1246,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>40000</v>
+        <v>88000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>2200000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1251,13 +1269,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>88000</v>
@@ -1274,19 +1292,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>40000</v>
+        <v>88000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>2200000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1297,13 +1315,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>88000</v>
@@ -1320,13 +1338,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>88000</v>
@@ -1343,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>88000</v>
@@ -1366,13 +1384,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>88000</v>
@@ -1389,13 +1407,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>88000</v>
@@ -1412,13 +1430,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>88000</v>
@@ -1435,13 +1453,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F30" s="18">
         <v>46400</v>
@@ -1464,13 +1482,13 @@
         <v>28</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
-        <v>88000</v>
+        <v>120000</v>
       </c>
       <c r="G31" s="18">
-        <v>2200000</v>
+        <v>3000000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1481,19 +1499,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
-        <v>43307</v>
+        <v>120000</v>
       </c>
       <c r="G32" s="18">
-        <v>1160000</v>
+        <v>3000000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1510,13 +1528,13 @@
         <v>28</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F33" s="18">
-        <v>88000</v>
+        <v>120000</v>
       </c>
       <c r="G33" s="18">
-        <v>2200000</v>
+        <v>3000000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1527,19 +1545,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F34" s="18">
-        <v>46400</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>1160000</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1550,19 +1568,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F35" s="18">
-        <v>88000</v>
+        <v>29509</v>
       </c>
       <c r="G35" s="18">
-        <v>2200000</v>
+        <v>737717</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1573,19 +1591,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="F36" s="18">
-        <v>88000</v>
+        <v>40000</v>
       </c>
       <c r="G36" s="18">
-        <v>2200000</v>
+        <v>1000000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1596,19 +1614,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F37" s="18">
-        <v>88000</v>
+        <v>6625</v>
       </c>
       <c r="G37" s="18">
-        <v>2200000</v>
+        <v>828116</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1619,75 +1637,167 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F38" s="18">
-        <v>88000</v>
+        <v>1898</v>
       </c>
       <c r="G38" s="18">
-        <v>2200000</v>
+        <v>1423500</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="22" t="s">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1898</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="F39" s="24">
-        <v>88000</v>
-      </c>
-      <c r="G39" s="24">
-        <v>2200000</v>
-      </c>
-      <c r="H39" s="25"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="26"/>
-    </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B44" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="32"/>
-      <c r="H44" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B45" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="32"/>
-      <c r="H45" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
+      <c r="D40" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" s="18">
+        <v>68658</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1980500</v>
+      </c>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F41" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="24">
+        <v>43307</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9004649017.xlsx
+++ b/Data/EC/NIT-9004649017.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2BEA5A3F-D4F2-411D-9845-24FF777217AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA4518C0-82FF-49B9-A773-65B6BEC7353B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6F724D57-4DAB-40C8-AE7C-62B409E1D337}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{355FCE0C-8084-467A-A2FA-6F00968BE339}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="56">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,139 +65,112 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1052960119</t>
+  </si>
+  <si>
+    <t>SHEYLA ANDREA PEREZ MIRANDA</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1050039005</t>
+  </si>
+  <si>
+    <t>JUAN PABLO BUELVAS LEYVA</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1143401543</t>
+  </si>
+  <si>
+    <t>ISAURA FILO ARBOLEDA</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>20373392</t>
+  </si>
+  <si>
+    <t>LILIANA VANEGAS ORTEGA</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
     <t>79427140</t>
   </si>
   <si>
     <t>RAMON JOSE ARIZA RIOS</t>
   </si>
   <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>1050969488</t>
+  </si>
+  <si>
+    <t>ARLEY ALEXANDER MACIAS TRESPALACIOS</t>
+  </si>
+  <si>
+    <t>1052998110</t>
+  </si>
+  <si>
+    <t>MARIAN ALEJANDRA BENAVIDEZ ACOSTA</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>73127846</t>
+  </si>
+  <si>
+    <t>JOSE LUIS CARRILLO GRAU</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1007939014</t>
+  </si>
+  <si>
+    <t>SHARON JULIANA GUERRERO RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
     <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>73127846</t>
-  </si>
-  <si>
-    <t>JOSE LUIS CARRILLO GRAU</t>
-  </si>
-  <si>
-    <t>1047458914</t>
-  </si>
-  <si>
-    <t>MERY CLARA MORELOS HENRIQUEZ</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>1050039005</t>
-  </si>
-  <si>
-    <t>JUAN PABLO BUELVAS LEYVA</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1052960119</t>
-  </si>
-  <si>
-    <t>SHEYLA ANDREA PEREZ MIRANDA</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1050969488</t>
-  </si>
-  <si>
-    <t>ARLEY ALEXANDER MACIAS TRESPALACIOS</t>
-  </si>
-  <si>
-    <t>1143401543</t>
-  </si>
-  <si>
-    <t>ISAURA FILO ARBOLEDA</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1052961171</t>
-  </si>
-  <si>
-    <t>YESENIA ROCIO SCHMALBACH MORENO</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>20373392</t>
-  </si>
-  <si>
-    <t>LILIANA VANEGAS ORTEGA</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>1052998110</t>
-  </si>
-  <si>
-    <t>MARIAN ALEJANDRA BENAVIDEZ ACOSTA</t>
-  </si>
-  <si>
-    <t>1007939014</t>
-  </si>
-  <si>
-    <t>SHARON JULIANA GUERRERO RODRIGUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -296,7 +269,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -309,9 +284,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -511,23 +484,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -555,10 +528,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -611,7 +584,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BD814C1-A383-2C29-838D-87E36C3FCE75}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4E8089-C639-7984-8126-143616C6573C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -962,8 +935,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80D9BDB-2671-4BE7-9369-8DC7D2FF298C}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F0A6232-2A8B-4EBB-B9EE-56AD1AC9E86F}">
+  <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -987,7 +960,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1032,7 +1005,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1064,12 +1037,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1947944</v>
+        <v>1584148</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1080,17 +1053,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="C13" s="5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F13" s="5">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1117,13 +1090,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1140,10 +1113,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>88000</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>2200000</v>
+        <v>737717</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1154,19 +1127,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>88000</v>
+        <v>31249</v>
       </c>
       <c r="G17" s="18">
-        <v>2200000</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1177,19 +1150,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>88000</v>
+        <v>6625</v>
       </c>
       <c r="G18" s="18">
-        <v>2200000</v>
+        <v>828116</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1200,19 +1173,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F19" s="18">
-        <v>88000</v>
+        <v>68658</v>
       </c>
       <c r="G19" s="18">
-        <v>2200000</v>
+        <v>1980500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1223,13 +1196,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F20" s="18">
         <v>88000</v>
@@ -1246,19 +1219,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F21" s="18">
-        <v>88000</v>
+        <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>2200000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1269,19 +1242,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F22" s="18">
-        <v>88000</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
-        <v>2200000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1292,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F23" s="18">
         <v>88000</v>
@@ -1315,13 +1288,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="F24" s="18">
         <v>88000</v>
@@ -1338,13 +1311,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F25" s="18">
         <v>88000</v>
@@ -1361,13 +1334,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F26" s="18">
         <v>88000</v>
@@ -1384,13 +1357,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="F27" s="18">
         <v>88000</v>
@@ -1407,13 +1380,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="F28" s="18">
         <v>88000</v>
@@ -1430,19 +1403,19 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="F29" s="18">
-        <v>88000</v>
+        <v>46400</v>
       </c>
       <c r="G29" s="18">
-        <v>2200000</v>
+        <v>1160000</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1453,19 +1426,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="F30" s="18">
-        <v>46400</v>
+        <v>88000</v>
       </c>
       <c r="G30" s="18">
-        <v>1160000</v>
+        <v>2200000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1476,19 +1449,19 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F31" s="18">
-        <v>120000</v>
+        <v>43307</v>
       </c>
       <c r="G31" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1499,19 +1472,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F32" s="18">
-        <v>120000</v>
+        <v>88000</v>
       </c>
       <c r="G32" s="18">
-        <v>3000000</v>
+        <v>2200000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1522,19 +1495,19 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F33" s="18">
-        <v>120000</v>
+        <v>46400</v>
       </c>
       <c r="G33" s="18">
-        <v>3000000</v>
+        <v>1160000</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1545,19 +1518,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F34" s="18">
-        <v>31249</v>
+        <v>88000</v>
       </c>
       <c r="G34" s="18">
-        <v>781242</v>
+        <v>2200000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1568,19 +1541,19 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F35" s="18">
-        <v>29509</v>
+        <v>88000</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>2200000</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1591,19 +1564,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="F36" s="18">
-        <v>40000</v>
+        <v>88000</v>
       </c>
       <c r="G36" s="18">
-        <v>1000000</v>
+        <v>2200000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1614,190 +1587,75 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F37" s="18">
-        <v>6625</v>
+        <v>88000</v>
       </c>
       <c r="G37" s="18">
-        <v>828116</v>
+        <v>2200000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D38" s="17" t="s">
+      <c r="B38" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="E38" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="18">
-        <v>1898</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" s="18">
-        <v>1898</v>
-      </c>
-      <c r="G39" s="18">
-        <v>1423500</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="18">
-        <v>68658</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1980500</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="F41" s="18">
-        <v>40000</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1000000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="17" t="s">
+      <c r="F38" s="24">
+        <v>88000</v>
+      </c>
+      <c r="G38" s="24">
+        <v>2200000</v>
+      </c>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="32"/>
+      <c r="H43" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B44" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E42" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="24">
-        <v>43307</v>
-      </c>
-      <c r="G43" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="C44" s="32"/>
+      <c r="H44" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H43:J43"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
